--- a/chatbot/train_tools/qna/train_data.xlsx
+++ b/chatbot/train_tools/qna/train_data.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProject\chatbot\chatbot\train_tools\qna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kei/PycharmProjects/first_chatbot/train_tools/qna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87DF479-59B0-4783-9916-BADBEC53E6B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A853BDA-43A5-AE4C-916E-BDA6CC036CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-21600" yWindow="-8880" windowWidth="21600" windowHeight="20940" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +69,55 @@
   </si>
   <si>
     <t>반가워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_FOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문 처리 완료되었습니다. 
+주문해주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문할게요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_DT,B_TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_DT} 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_DT}에 예약 접수 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕하면 나빠요 ㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문 처리 감사!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.imgur.com/UluUFMp.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +145,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -126,12 +192,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,9 +210,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,21 +531,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -486,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="38">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -496,8 +572,11 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="38">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -506,10 +585,67 @@
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0E9BA614-0B84-764C-9F33-CC800C3C4E3B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F3941D0C-1C04-7A44-906E-8CC02273961F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>